--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adm2-Ramp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Adm2</t>
+  </si>
+  <si>
+    <t>Ramp1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Adm2</t>
-  </si>
-  <si>
-    <t>Ramp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H2">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.245257666666666</v>
+        <v>2.245257666666667</v>
       </c>
       <c r="N2">
-        <v>6.735772999999999</v>
+        <v>6.735773</v>
       </c>
       <c r="O2">
-        <v>0.3168027225634116</v>
+        <v>0.3514914311161597</v>
       </c>
       <c r="P2">
-        <v>0.3168027225634117</v>
+        <v>0.3514914311161597</v>
       </c>
       <c r="Q2">
-        <v>0.07035215530811111</v>
+        <v>0.162480316306</v>
       </c>
       <c r="R2">
-        <v>0.633169397773</v>
+        <v>1.462322846754</v>
       </c>
       <c r="S2">
-        <v>0.3168027225634116</v>
+        <v>0.3514914311161597</v>
       </c>
       <c r="T2">
-        <v>0.3168027225634117</v>
+        <v>0.3514914311161597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H3">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8080983333333335</v>
+        <v>0.5184663333333334</v>
       </c>
       <c r="N3">
-        <v>2.424295</v>
+        <v>1.555399</v>
       </c>
       <c r="O3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
       <c r="P3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
       <c r="Q3">
-        <v>0.02532068381055556</v>
+        <v>0.037519334678</v>
       </c>
       <c r="R3">
-        <v>0.227886154295</v>
+        <v>0.337674012102</v>
       </c>
       <c r="S3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
       <c r="T3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03133366666666667</v>
+        <v>0.072366</v>
       </c>
       <c r="H4">
-        <v>0.094001</v>
+        <v>0.217098</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.033886333333334</v>
+        <v>3.624077999999999</v>
       </c>
       <c r="N4">
-        <v>12.101659</v>
+        <v>10.872234</v>
       </c>
       <c r="O4">
-        <v>0.5691757306450225</v>
+        <v>0.5673435087687438</v>
       </c>
       <c r="P4">
-        <v>0.5691757306450225</v>
+        <v>0.567343508768744</v>
       </c>
       <c r="Q4">
-        <v>0.1263964497398889</v>
+        <v>0.262260028548</v>
       </c>
       <c r="R4">
-        <v>1.137568047659</v>
+        <v>2.360340256932</v>
       </c>
       <c r="S4">
-        <v>0.5691757306450225</v>
+        <v>0.5673435087687438</v>
       </c>
       <c r="T4">
-        <v>0.5691757306450225</v>
+        <v>0.567343508768744</v>
       </c>
     </row>
   </sheetData>
